--- a/Results.xlsx
+++ b/Results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="288" yWindow="36" windowWidth="12420" windowHeight="5592" activeTab="3"/>
+    <workbookView xWindow="288" yWindow="36" windowWidth="12420" windowHeight="5592" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="AO-7" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="AO-91" sheetId="4" r:id="rId4"/>
     <sheet name="XW2A" sheetId="5" r:id="rId5"/>
     <sheet name="SO-50" sheetId="6" r:id="rId6"/>
+    <sheet name="Tevel" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="31">
   <si>
     <t>Sat Name</t>
   </si>
@@ -109,6 +110,9 @@
   </si>
   <si>
     <t>SO-50 (EIRP +24 dBm or 0.25W)</t>
+  </si>
+  <si>
+    <t>Tevel (EIRP +27 dBm or 0.25W)</t>
   </si>
 </sst>
 </file>
@@ -4470,7 +4474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
@@ -6639,7 +6643,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
@@ -10276,7 +10280,7 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="J62" sqref="J62"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -12464,4 +12468,2196 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L59"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10</v>
+      </c>
+      <c r="E3" s="1">
+        <v>20</v>
+      </c>
+      <c r="F3" s="1">
+        <v>30</v>
+      </c>
+      <c r="G3" s="1">
+        <v>40</v>
+      </c>
+      <c r="H3" s="1">
+        <v>50</v>
+      </c>
+      <c r="I3" s="1">
+        <v>60</v>
+      </c>
+      <c r="J3" s="1">
+        <v>70</v>
+      </c>
+      <c r="K3" s="1">
+        <v>80</v>
+      </c>
+      <c r="L3" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2610</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2113</v>
+      </c>
+      <c r="D4" s="2">
+        <v>1729</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1221</v>
+      </c>
+      <c r="F4" s="2">
+        <v>933</v>
+      </c>
+      <c r="G4" s="2">
+        <v>761</v>
+      </c>
+      <c r="H4" s="2">
+        <v>654</v>
+      </c>
+      <c r="I4" s="2">
+        <v>586</v>
+      </c>
+      <c r="J4" s="2">
+        <v>544</v>
+      </c>
+      <c r="K4" s="2">
+        <v>521</v>
+      </c>
+      <c r="L4" s="2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1">
+        <f>32.4 + 20*LOG(B4) +20*LOG(438)</f>
+        <v>153.56229235684759</v>
+      </c>
+      <c r="C5" s="1">
+        <f>32.4 + 20*LOG(C4) +20*LOG(438)</f>
+        <v>151.72747215112827</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" ref="D5:L5" si="0">32.4 + 20*LOG(D4) +20*LOG(436)</f>
+        <v>149.94562965085018</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>146.92404306426937</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>144.58736266030172</v>
+      </c>
+      <c r="G5" s="1">
+        <f t="shared" si="0"/>
+        <v>142.81742292078317</v>
+      </c>
+      <c r="H5" s="1">
+        <f t="shared" si="0"/>
+        <v>141.50128475185707</v>
+      </c>
+      <c r="I5" s="1">
+        <f t="shared" si="0"/>
+        <v>140.54768210573354</v>
+      </c>
+      <c r="J5" s="1">
+        <f t="shared" si="0"/>
+        <v>139.90170777933531</v>
+      </c>
+      <c r="K5" s="1">
+        <f t="shared" si="0"/>
+        <v>139.52648425136221</v>
+      </c>
+      <c r="L5" s="1">
+        <f t="shared" si="0"/>
+        <v>139.40899216527723</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1">
+        <f>B5-B5</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <f>B5-C5</f>
+        <v>1.8348202057193248</v>
+      </c>
+      <c r="D6" s="1">
+        <f>B5-D5</f>
+        <v>3.6166627059974132</v>
+      </c>
+      <c r="E6" s="1">
+        <f>B5-E5</f>
+        <v>6.638249292578223</v>
+      </c>
+      <c r="F6" s="1">
+        <f>B5-F5</f>
+        <v>8.9749296965458711</v>
+      </c>
+      <c r="G6" s="1">
+        <f>B5-G5</f>
+        <v>10.74486943606442</v>
+      </c>
+      <c r="H6" s="1">
+        <f>B5-H5</f>
+        <v>12.061007604990522</v>
+      </c>
+      <c r="I6" s="1">
+        <f>B5-I5</f>
+        <v>13.01461025111405</v>
+      </c>
+      <c r="J6" s="1">
+        <f>B5-J5</f>
+        <v>13.660584577512282</v>
+      </c>
+      <c r="K6" s="1">
+        <f>B5-K5</f>
+        <v>14.035808105485387</v>
+      </c>
+      <c r="L6" s="1">
+        <f>B5-L5</f>
+        <v>14.153300191570366</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1">
+        <v>0</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>10</v>
+      </c>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>30</v>
+      </c>
+      <c r="G10" s="1">
+        <v>40</v>
+      </c>
+      <c r="H10" s="1">
+        <v>50</v>
+      </c>
+      <c r="I10" s="1">
+        <v>60</v>
+      </c>
+      <c r="J10" s="1">
+        <v>70</v>
+      </c>
+      <c r="K10" s="1">
+        <v>80</v>
+      </c>
+      <c r="L10" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1">
+        <v>-50</v>
+      </c>
+      <c r="C11" s="1">
+        <v>6</v>
+      </c>
+      <c r="D11" s="1">
+        <v>-1</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+      <c r="G11" s="1">
+        <v>-2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>-4</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J11" s="1">
+        <v>-4</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-7</v>
+      </c>
+      <c r="L11" s="1">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="1">
+        <f>24-B5+B11</f>
+        <v>-179.56229235684759</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" ref="C12:L12" si="1">24-C5+C11</f>
+        <v>-121.72747215112827</v>
+      </c>
+      <c r="D12" s="1">
+        <f t="shared" si="1"/>
+        <v>-126.94562965085018</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="1"/>
+        <v>-121.92404306426937</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="1"/>
+        <v>-119.58736266030172</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="1"/>
+        <v>-120.81742292078317</v>
+      </c>
+      <c r="H12" s="1">
+        <f t="shared" si="1"/>
+        <v>-121.50128475185707</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>-118.54768210573354</v>
+      </c>
+      <c r="J12" s="1">
+        <f t="shared" si="1"/>
+        <v>-119.90170777933531</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="1"/>
+        <v>-122.52648425136221</v>
+      </c>
+      <c r="L12" s="1">
+        <f t="shared" si="1"/>
+        <v>-145.40899216527723</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1">
+        <f xml:space="preserve"> 126+B12</f>
+        <v>-53.562292356847593</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" ref="C13:L13" si="2" xml:space="preserve"> 126+C12</f>
+        <v>4.2725278488717322</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="2"/>
+        <v>-0.94562965085017936</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0759569357306304</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4126373396982785</v>
+      </c>
+      <c r="G13" s="1">
+        <f t="shared" si="2"/>
+        <v>5.1825770792168271</v>
+      </c>
+      <c r="H13" s="1">
+        <f t="shared" si="2"/>
+        <v>4.4987152481429291</v>
+      </c>
+      <c r="I13" s="1">
+        <f t="shared" si="2"/>
+        <v>7.4523178942664572</v>
+      </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>6.098292220664689</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="2"/>
+        <v>3.4735157486377943</v>
+      </c>
+      <c r="L13" s="1">
+        <f t="shared" si="2"/>
+        <v>-19.408992165277226</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="str">
+        <f t="shared" ref="B14:L14" si="3">IF(B13 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+      <c r="E14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+      <c r="J14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+      <c r="K14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+      <c r="L14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v>Bad</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="1">
+        <f xml:space="preserve"> 130+B12</f>
+        <v>-49.562292356847593</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" ref="C15:L15" si="4" xml:space="preserve"> 130+C12</f>
+        <v>8.2725278488717322</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="4"/>
+        <v>3.0543703491498206</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="4"/>
+        <v>8.0759569357306304</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="4"/>
+        <v>10.412637339698279</v>
+      </c>
+      <c r="G15" s="1">
+        <f t="shared" si="4"/>
+        <v>9.1825770792168271</v>
+      </c>
+      <c r="H15" s="1">
+        <f t="shared" si="4"/>
+        <v>8.4987152481429291</v>
+      </c>
+      <c r="I15" s="1">
+        <f t="shared" si="4"/>
+        <v>11.452317894266457</v>
+      </c>
+      <c r="J15" s="1">
+        <f t="shared" si="4"/>
+        <v>10.098292220664689</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="4"/>
+        <v>7.4735157486377943</v>
+      </c>
+      <c r="L15" s="1">
+        <f t="shared" si="4"/>
+        <v>-15.408992165277226</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="1" t="str">
+        <f t="shared" ref="B16:L16" si="5">IF(B15 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Bad</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Bad</v>
+      </c>
+      <c r="E16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Bad</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Good</v>
+      </c>
+      <c r="G16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Bad</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Bad</v>
+      </c>
+      <c r="I16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Good</v>
+      </c>
+      <c r="J16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Good</v>
+      </c>
+      <c r="K16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Bad</v>
+      </c>
+      <c r="L16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v>Bad</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1">
+        <v>0</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1">
+        <v>20</v>
+      </c>
+      <c r="F19" s="1">
+        <v>30</v>
+      </c>
+      <c r="G19" s="1">
+        <v>40</v>
+      </c>
+      <c r="H19" s="1">
+        <v>50</v>
+      </c>
+      <c r="I19" s="1">
+        <v>60</v>
+      </c>
+      <c r="J19" s="1">
+        <v>70</v>
+      </c>
+      <c r="K19" s="1">
+        <v>80</v>
+      </c>
+      <c r="L19" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B20">
+        <v>-50</v>
+      </c>
+      <c r="C20">
+        <v>5.65</v>
+      </c>
+      <c r="D20">
+        <v>-12.35</v>
+      </c>
+      <c r="E20">
+        <v>-6.5</v>
+      </c>
+      <c r="F20">
+        <v>3.5</v>
+      </c>
+      <c r="G20">
+        <v>2.5</v>
+      </c>
+      <c r="H20">
+        <v>-3.5</v>
+      </c>
+      <c r="I20">
+        <v>3.5</v>
+      </c>
+      <c r="J20">
+        <v>-1.5</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B21" s="1">
+        <f>24-B5+B20</f>
+        <v>-179.56229235684759</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" ref="C21:L21" si="6">36-C5+C20</f>
+        <v>-110.07747215112826</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="6"/>
+        <v>-126.29562965085017</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="6"/>
+        <v>-117.42404306426937</v>
+      </c>
+      <c r="F21" s="1">
+        <f t="shared" si="6"/>
+        <v>-105.08736266030172</v>
+      </c>
+      <c r="G21" s="1">
+        <f t="shared" si="6"/>
+        <v>-104.31742292078317</v>
+      </c>
+      <c r="H21" s="1">
+        <f t="shared" si="6"/>
+        <v>-109.00128475185707</v>
+      </c>
+      <c r="I21" s="1">
+        <f t="shared" si="6"/>
+        <v>-101.04768210573354</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="6"/>
+        <v>-105.40170777933531</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="6"/>
+        <v>-100.52648425136221</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="6"/>
+        <v>-101.40899216527723</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B22" s="1">
+        <f>126+B21</f>
+        <v>-53.562292356847593</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" ref="C22:L22" si="7">126+C21</f>
+        <v>15.922527848871738</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="7"/>
+        <v>-0.29562965085017368</v>
+      </c>
+      <c r="E22" s="1">
+        <f t="shared" si="7"/>
+        <v>8.5759569357306304</v>
+      </c>
+      <c r="F22" s="1">
+        <f t="shared" si="7"/>
+        <v>20.912637339698279</v>
+      </c>
+      <c r="G22" s="1">
+        <f t="shared" si="7"/>
+        <v>21.682577079216827</v>
+      </c>
+      <c r="H22" s="1">
+        <f t="shared" si="7"/>
+        <v>16.998715248142929</v>
+      </c>
+      <c r="I22" s="1">
+        <f t="shared" si="7"/>
+        <v>24.952317894266457</v>
+      </c>
+      <c r="J22" s="1">
+        <f t="shared" si="7"/>
+        <v>20.598292220664689</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="7"/>
+        <v>25.473515748637794</v>
+      </c>
+      <c r="L22" s="1">
+        <f t="shared" si="7"/>
+        <v>24.591007834722774</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="str">
+        <f>IF(B22 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C23" s="1" t="str">
+        <f t="shared" ref="C23:L23" si="8">IF(C22 &gt;10,"Good","Bad")</f>
+        <v>Good</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Bad</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Bad</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Good</v>
+      </c>
+      <c r="G23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Good</v>
+      </c>
+      <c r="H23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Good</v>
+      </c>
+      <c r="I23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Good</v>
+      </c>
+      <c r="J23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Good</v>
+      </c>
+      <c r="K23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Good</v>
+      </c>
+      <c r="L23" s="1" t="str">
+        <f t="shared" si="8"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" t="s">
+        <v>8</v>
+      </c>
+      <c r="B24" s="1">
+        <f>130+B21</f>
+        <v>-49.562292356847593</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" ref="C24:L24" si="9">130+C21</f>
+        <v>19.922527848871738</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="9"/>
+        <v>3.7043703491498263</v>
+      </c>
+      <c r="E24" s="1">
+        <f t="shared" si="9"/>
+        <v>12.57595693573063</v>
+      </c>
+      <c r="F24" s="1">
+        <f t="shared" si="9"/>
+        <v>24.912637339698279</v>
+      </c>
+      <c r="G24" s="1">
+        <f t="shared" si="9"/>
+        <v>25.682577079216827</v>
+      </c>
+      <c r="H24" s="1">
+        <f t="shared" si="9"/>
+        <v>20.998715248142929</v>
+      </c>
+      <c r="I24" s="1">
+        <f t="shared" si="9"/>
+        <v>28.952317894266457</v>
+      </c>
+      <c r="J24" s="1">
+        <f t="shared" si="9"/>
+        <v>24.598292220664689</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="9"/>
+        <v>29.473515748637794</v>
+      </c>
+      <c r="L24" s="1">
+        <f t="shared" si="9"/>
+        <v>28.591007834722774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="1" t="str">
+        <f>IF(B24 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C25" s="1" t="str">
+        <f t="shared" ref="C25:L25" si="10">IF(C24 &gt;10,"Good","Bad")</f>
+        <v>Good</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Bad</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Good</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Good</v>
+      </c>
+      <c r="G25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Good</v>
+      </c>
+      <c r="H25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Good</v>
+      </c>
+      <c r="I25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Good</v>
+      </c>
+      <c r="J25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Good</v>
+      </c>
+      <c r="K25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Good</v>
+      </c>
+      <c r="L25" s="1" t="str">
+        <f t="shared" si="10"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <v>5</v>
+      </c>
+      <c r="D28" s="1">
+        <v>10</v>
+      </c>
+      <c r="E28" s="1">
+        <v>20</v>
+      </c>
+      <c r="F28" s="1">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1">
+        <v>40</v>
+      </c>
+      <c r="H28" s="1">
+        <v>50</v>
+      </c>
+      <c r="I28" s="1">
+        <v>60</v>
+      </c>
+      <c r="J28" s="1">
+        <v>70</v>
+      </c>
+      <c r="K28" s="1">
+        <v>80</v>
+      </c>
+      <c r="L28" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29">
+        <v>-50</v>
+      </c>
+      <c r="C29">
+        <v>5.65</v>
+      </c>
+      <c r="D29">
+        <v>-12.35</v>
+      </c>
+      <c r="E29">
+        <v>-6.5</v>
+      </c>
+      <c r="F29">
+        <v>3.5</v>
+      </c>
+      <c r="G29">
+        <v>2.5</v>
+      </c>
+      <c r="H29">
+        <v>-3.5</v>
+      </c>
+      <c r="I29">
+        <v>3.5</v>
+      </c>
+      <c r="J29">
+        <v>-1.5</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <f>24-B5+B29</f>
+        <v>-179.56229235684759</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" ref="C30:L30" si="11">24-C5+C29</f>
+        <v>-122.07747215112826</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="11"/>
+        <v>-138.29562965085017</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="11"/>
+        <v>-129.42404306426937</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="11"/>
+        <v>-117.08736266030172</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="11"/>
+        <v>-116.31742292078317</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="11"/>
+        <v>-121.00128475185707</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="11"/>
+        <v>-113.04768210573354</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="11"/>
+        <v>-117.40170777933531</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="11"/>
+        <v>-112.52648425136221</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="11"/>
+        <v>-113.40899216527723</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="A31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="1">
+        <f>126+B30</f>
+        <v>-53.562292356847593</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" ref="C31:L31" si="12">126+C30</f>
+        <v>3.9225278488717379</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="12"/>
+        <v>-12.295629650850174</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="12"/>
+        <v>-3.4240430642693696</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="12"/>
+        <v>8.9126373396982785</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="12"/>
+        <v>9.6825770792168271</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="12"/>
+        <v>4.9987152481429291</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="12"/>
+        <v>12.952317894266457</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="12"/>
+        <v>8.598292220664689</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="12"/>
+        <v>13.473515748637794</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="12"/>
+        <v>12.591007834722774</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="1" t="str">
+        <f>IF(B31 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C32" s="1" t="str">
+        <f t="shared" ref="C32:L32" si="13">IF(C31 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Bad</v>
+      </c>
+      <c r="E32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Bad</v>
+      </c>
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Bad</v>
+      </c>
+      <c r="G32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Bad</v>
+      </c>
+      <c r="H32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Bad</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Good</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Bad</v>
+      </c>
+      <c r="K32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Good</v>
+      </c>
+      <c r="L32" s="1" t="str">
+        <f t="shared" si="13"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
+      <c r="A33" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="1">
+        <f>130+B30</f>
+        <v>-49.562292356847593</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ref="C33:L33" si="14">130+C30</f>
+        <v>7.9225278488717379</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="14"/>
+        <v>-8.2956296508501737</v>
+      </c>
+      <c r="E33" s="1">
+        <f t="shared" si="14"/>
+        <v>0.57595693573063045</v>
+      </c>
+      <c r="F33" s="1">
+        <f t="shared" si="14"/>
+        <v>12.912637339698279</v>
+      </c>
+      <c r="G33" s="1">
+        <f t="shared" si="14"/>
+        <v>13.682577079216827</v>
+      </c>
+      <c r="H33" s="1">
+        <f t="shared" si="14"/>
+        <v>8.9987152481429291</v>
+      </c>
+      <c r="I33" s="1">
+        <f t="shared" si="14"/>
+        <v>16.952317894266457</v>
+      </c>
+      <c r="J33" s="1">
+        <f t="shared" si="14"/>
+        <v>12.598292220664689</v>
+      </c>
+      <c r="K33" s="1">
+        <f t="shared" si="14"/>
+        <v>17.473515748637794</v>
+      </c>
+      <c r="L33" s="1">
+        <f t="shared" si="14"/>
+        <v>16.591007834722774</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="1" t="str">
+        <f>IF(B33 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C34" s="1" t="str">
+        <f t="shared" ref="C34:L34" si="15">IF(C33 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Bad</v>
+      </c>
+      <c r="E34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Bad</v>
+      </c>
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Good</v>
+      </c>
+      <c r="G34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Good</v>
+      </c>
+      <c r="H34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Bad</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Good</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Good</v>
+      </c>
+      <c r="K34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Good</v>
+      </c>
+      <c r="L34" s="1" t="str">
+        <f t="shared" si="15"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
+      <c r="A36" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="1">
+        <v>0</v>
+      </c>
+      <c r="C36" s="1">
+        <v>5</v>
+      </c>
+      <c r="D36" s="1">
+        <v>10</v>
+      </c>
+      <c r="E36" s="1">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1">
+        <v>30</v>
+      </c>
+      <c r="G36" s="1">
+        <v>40</v>
+      </c>
+      <c r="H36" s="1">
+        <v>50</v>
+      </c>
+      <c r="I36" s="1">
+        <v>60</v>
+      </c>
+      <c r="J36" s="1">
+        <v>70</v>
+      </c>
+      <c r="K36" s="1">
+        <v>80</v>
+      </c>
+      <c r="L36" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
+      <c r="A37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37">
+        <v>-50</v>
+      </c>
+      <c r="C37">
+        <v>3.2</v>
+      </c>
+      <c r="D37">
+        <v>5.2</v>
+      </c>
+      <c r="E37">
+        <v>-0.8</v>
+      </c>
+      <c r="F37">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G37">
+        <v>1.2</v>
+      </c>
+      <c r="H37">
+        <v>0.2</v>
+      </c>
+      <c r="I37">
+        <v>-0.8</v>
+      </c>
+      <c r="J37">
+        <v>-4.8</v>
+      </c>
+      <c r="K37">
+        <v>-6.8</v>
+      </c>
+      <c r="L37">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
+      <c r="A38" t="s">
+        <v>6</v>
+      </c>
+      <c r="B38" s="1">
+        <f>24-B5+B37</f>
+        <v>-179.56229235684759</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" ref="C38:L38" si="16">24-C5+C37</f>
+        <v>-124.52747215112826</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="16"/>
+        <v>-120.74562965085018</v>
+      </c>
+      <c r="E38" s="1">
+        <f t="shared" si="16"/>
+        <v>-123.72404306426937</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="16"/>
+        <v>-118.38736266030172</v>
+      </c>
+      <c r="G38" s="1">
+        <f t="shared" si="16"/>
+        <v>-117.61742292078317</v>
+      </c>
+      <c r="H38" s="1">
+        <f t="shared" si="16"/>
+        <v>-117.30128475185707</v>
+      </c>
+      <c r="I38" s="1">
+        <f t="shared" si="16"/>
+        <v>-117.34768210573354</v>
+      </c>
+      <c r="J38" s="1">
+        <f t="shared" si="16"/>
+        <v>-120.70170777933531</v>
+      </c>
+      <c r="K38" s="1">
+        <f t="shared" si="16"/>
+        <v>-122.3264842513622</v>
+      </c>
+      <c r="L38" s="1">
+        <f t="shared" si="16"/>
+        <v>-165.40899216527723</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
+      <c r="A39" t="s">
+        <v>7</v>
+      </c>
+      <c r="B39" s="1">
+        <f>126+B38</f>
+        <v>-53.562292356847593</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" ref="C39:L39" si="17">126+C38</f>
+        <v>1.472527848871735</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="17"/>
+        <v>5.2543703491498235</v>
+      </c>
+      <c r="E39" s="1">
+        <f t="shared" si="17"/>
+        <v>2.2759569357306333</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="17"/>
+        <v>7.6126373396982814</v>
+      </c>
+      <c r="G39" s="1">
+        <f t="shared" si="17"/>
+        <v>8.3825770792168299</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="shared" si="17"/>
+        <v>8.698715248142932</v>
+      </c>
+      <c r="I39" s="1">
+        <f t="shared" si="17"/>
+        <v>8.65231789426646</v>
+      </c>
+      <c r="J39" s="1">
+        <f t="shared" si="17"/>
+        <v>5.2982922206646919</v>
+      </c>
+      <c r="K39" s="1">
+        <f t="shared" si="17"/>
+        <v>3.6735157486377972</v>
+      </c>
+      <c r="L39" s="1">
+        <f t="shared" si="17"/>
+        <v>-39.408992165277226</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="1" t="str">
+        <f>IF(B39 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C40" s="1" t="str">
+        <f t="shared" ref="C40:L40" si="18">IF(C39 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Bad</v>
+      </c>
+      <c r="E40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Bad</v>
+      </c>
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Bad</v>
+      </c>
+      <c r="G40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Bad</v>
+      </c>
+      <c r="H40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Bad</v>
+      </c>
+      <c r="I40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Bad</v>
+      </c>
+      <c r="J40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Bad</v>
+      </c>
+      <c r="K40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Bad</v>
+      </c>
+      <c r="L40" s="1" t="str">
+        <f t="shared" si="18"/>
+        <v>Bad</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
+      <c r="A41" t="s">
+        <v>8</v>
+      </c>
+      <c r="B41" s="1">
+        <f>130+B38</f>
+        <v>-49.562292356847593</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:L41" si="19">130+C38</f>
+        <v>5.472527848871735</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="19"/>
+        <v>9.2543703491498235</v>
+      </c>
+      <c r="E41" s="1">
+        <f t="shared" si="19"/>
+        <v>6.2759569357306333</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="19"/>
+        <v>11.612637339698281</v>
+      </c>
+      <c r="G41" s="1">
+        <f t="shared" si="19"/>
+        <v>12.38257707921683</v>
+      </c>
+      <c r="H41" s="1">
+        <f t="shared" si="19"/>
+        <v>12.698715248142932</v>
+      </c>
+      <c r="I41" s="1">
+        <f t="shared" si="19"/>
+        <v>12.65231789426646</v>
+      </c>
+      <c r="J41" s="1">
+        <f t="shared" si="19"/>
+        <v>9.2982922206646919</v>
+      </c>
+      <c r="K41" s="1">
+        <f t="shared" si="19"/>
+        <v>7.6735157486377972</v>
+      </c>
+      <c r="L41" s="1">
+        <f t="shared" si="19"/>
+        <v>-35.408992165277226</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
+      <c r="A42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="1" t="str">
+        <f>IF(B41&gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <f t="shared" ref="C42:L42" si="20">IF(C41 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Bad</v>
+      </c>
+      <c r="E42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Bad</v>
+      </c>
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Good</v>
+      </c>
+      <c r="G42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Good</v>
+      </c>
+      <c r="H42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Good</v>
+      </c>
+      <c r="I42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Good</v>
+      </c>
+      <c r="J42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Bad</v>
+      </c>
+      <c r="K42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Bad</v>
+      </c>
+      <c r="L42" s="1" t="str">
+        <f t="shared" si="20"/>
+        <v>Bad</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
+      <c r="B43" s="1"/>
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="F43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="H43" s="1"/>
+      <c r="I43" s="1"/>
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+    </row>
+    <row r="44" spans="1:12">
+      <c r="A44" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>5</v>
+      </c>
+      <c r="D44" s="1">
+        <v>10</v>
+      </c>
+      <c r="E44" s="1">
+        <v>20</v>
+      </c>
+      <c r="F44" s="1">
+        <v>30</v>
+      </c>
+      <c r="G44" s="1">
+        <v>40</v>
+      </c>
+      <c r="H44" s="1">
+        <v>50</v>
+      </c>
+      <c r="I44" s="1">
+        <v>60</v>
+      </c>
+      <c r="J44" s="1">
+        <v>70</v>
+      </c>
+      <c r="K44" s="1">
+        <v>80</v>
+      </c>
+      <c r="L44" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
+      <c r="A45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B45">
+        <v>-50</v>
+      </c>
+      <c r="C45">
+        <v>-8</v>
+      </c>
+      <c r="D45">
+        <v>2.5</v>
+      </c>
+      <c r="E45">
+        <v>-1</v>
+      </c>
+      <c r="F45">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="G45">
+        <v>3</v>
+      </c>
+      <c r="H45">
+        <v>4.5</v>
+      </c>
+      <c r="I45">
+        <v>4.5</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+      <c r="K45">
+        <v>5.6</v>
+      </c>
+      <c r="L45">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
+      <c r="A46" t="s">
+        <v>6</v>
+      </c>
+      <c r="B46" s="1">
+        <f>24-B5+B45</f>
+        <v>-179.56229235684759</v>
+      </c>
+      <c r="C46" s="1">
+        <f t="shared" ref="C46:L46" si="21">24-C5+C45</f>
+        <v>-135.72747215112827</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="21"/>
+        <v>-123.44562965085018</v>
+      </c>
+      <c r="E46" s="1">
+        <f t="shared" si="21"/>
+        <v>-123.92404306426937</v>
+      </c>
+      <c r="F46" s="1">
+        <f t="shared" si="21"/>
+        <v>-118.38736266030172</v>
+      </c>
+      <c r="G46" s="1">
+        <f t="shared" si="21"/>
+        <v>-115.81742292078317</v>
+      </c>
+      <c r="H46" s="1">
+        <f t="shared" si="21"/>
+        <v>-113.00128475185707</v>
+      </c>
+      <c r="I46" s="1">
+        <f t="shared" si="21"/>
+        <v>-112.04768210573354</v>
+      </c>
+      <c r="J46" s="1">
+        <f t="shared" si="21"/>
+        <v>-112.90170777933531</v>
+      </c>
+      <c r="K46" s="1">
+        <f t="shared" si="21"/>
+        <v>-109.92648425136221</v>
+      </c>
+      <c r="L46" s="1">
+        <f t="shared" si="21"/>
+        <v>-109.72899216527722</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
+      <c r="A47" t="s">
+        <v>7</v>
+      </c>
+      <c r="B47" s="1">
+        <f>126+B46</f>
+        <v>-53.562292356847593</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" ref="C47:L47" si="22">126+C46</f>
+        <v>-9.7274721511282678</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="22"/>
+        <v>2.5543703491498206</v>
+      </c>
+      <c r="E47" s="1">
+        <f t="shared" si="22"/>
+        <v>2.0759569357306304</v>
+      </c>
+      <c r="F47" s="1">
+        <f t="shared" si="22"/>
+        <v>7.6126373396982814</v>
+      </c>
+      <c r="G47" s="1">
+        <f t="shared" si="22"/>
+        <v>10.182577079216827</v>
+      </c>
+      <c r="H47" s="1">
+        <f t="shared" si="22"/>
+        <v>12.998715248142929</v>
+      </c>
+      <c r="I47" s="1">
+        <f t="shared" si="22"/>
+        <v>13.952317894266457</v>
+      </c>
+      <c r="J47" s="1">
+        <f t="shared" si="22"/>
+        <v>13.098292220664689</v>
+      </c>
+      <c r="K47" s="1">
+        <f t="shared" si="22"/>
+        <v>16.073515748637789</v>
+      </c>
+      <c r="L47" s="1">
+        <f t="shared" si="22"/>
+        <v>16.271007834722781</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
+      <c r="A48" t="s">
+        <v>12</v>
+      </c>
+      <c r="B48" s="1" t="str">
+        <f>IF(B47 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C48" s="1" t="str">
+        <f t="shared" ref="C48:L48" si="23">IF(C47 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Bad</v>
+      </c>
+      <c r="E48" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Bad</v>
+      </c>
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Bad</v>
+      </c>
+      <c r="G48" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Good</v>
+      </c>
+      <c r="H48" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Good</v>
+      </c>
+      <c r="I48" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Good</v>
+      </c>
+      <c r="J48" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Good</v>
+      </c>
+      <c r="K48" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Good</v>
+      </c>
+      <c r="L48" s="1" t="str">
+        <f t="shared" si="23"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
+      <c r="A49" t="s">
+        <v>8</v>
+      </c>
+      <c r="B49" s="1">
+        <f>130+B46</f>
+        <v>-49.562292356847593</v>
+      </c>
+      <c r="C49" s="1">
+        <f t="shared" ref="C49:L49" si="24">130+C46</f>
+        <v>-5.7274721511282678</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="24"/>
+        <v>6.5543703491498206</v>
+      </c>
+      <c r="E49" s="1">
+        <f t="shared" si="24"/>
+        <v>6.0759569357306304</v>
+      </c>
+      <c r="F49" s="1">
+        <f t="shared" si="24"/>
+        <v>11.612637339698281</v>
+      </c>
+      <c r="G49" s="1">
+        <f t="shared" si="24"/>
+        <v>14.182577079216827</v>
+      </c>
+      <c r="H49" s="1">
+        <f t="shared" si="24"/>
+        <v>16.998715248142929</v>
+      </c>
+      <c r="I49" s="1">
+        <f t="shared" si="24"/>
+        <v>17.952317894266457</v>
+      </c>
+      <c r="J49" s="1">
+        <f t="shared" si="24"/>
+        <v>17.098292220664689</v>
+      </c>
+      <c r="K49" s="1">
+        <f t="shared" si="24"/>
+        <v>20.073515748637789</v>
+      </c>
+      <c r="L49" s="1">
+        <f t="shared" si="24"/>
+        <v>20.271007834722781</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
+      <c r="A50" t="s">
+        <v>12</v>
+      </c>
+      <c r="B50" s="1" t="str">
+        <f>IF(B49&gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C50" s="1" t="str">
+        <f t="shared" ref="C50:L50" si="25">IF(C49 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Bad</v>
+      </c>
+      <c r="E50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Bad</v>
+      </c>
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Good</v>
+      </c>
+      <c r="G50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Good</v>
+      </c>
+      <c r="H50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Good</v>
+      </c>
+      <c r="I50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Good</v>
+      </c>
+      <c r="J50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Good</v>
+      </c>
+      <c r="K50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Good</v>
+      </c>
+      <c r="L50" s="1" t="str">
+        <f t="shared" si="25"/>
+        <v>Good</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
+      <c r="B51" s="1"/>
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="F51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="H51" s="1"/>
+      <c r="I51" s="1"/>
+      <c r="J51" s="1"/>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+    </row>
+    <row r="52" spans="1:12">
+      <c r="A52" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
+      <c r="A53" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1">
+        <v>0</v>
+      </c>
+      <c r="C53" s="1">
+        <v>5</v>
+      </c>
+      <c r="D53" s="1">
+        <v>10</v>
+      </c>
+      <c r="E53" s="1">
+        <v>20</v>
+      </c>
+      <c r="F53" s="1">
+        <v>30</v>
+      </c>
+      <c r="G53" s="1">
+        <v>40</v>
+      </c>
+      <c r="H53" s="1">
+        <v>50</v>
+      </c>
+      <c r="I53" s="1">
+        <v>60</v>
+      </c>
+      <c r="J53" s="1">
+        <v>70</v>
+      </c>
+      <c r="K53" s="1">
+        <v>80</v>
+      </c>
+      <c r="L53" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54" t="s">
+        <v>11</v>
+      </c>
+      <c r="B54" s="1">
+        <v>-50</v>
+      </c>
+      <c r="C54" s="1">
+        <v>12</v>
+      </c>
+      <c r="D54" s="1">
+        <v>10</v>
+      </c>
+      <c r="E54" s="1">
+        <v>12.2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>12.3</v>
+      </c>
+      <c r="G54" s="1">
+        <v>11</v>
+      </c>
+      <c r="H54" s="1">
+        <v>7</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>-5</v>
+      </c>
+      <c r="K54" s="1">
+        <v>-3</v>
+      </c>
+      <c r="L54" s="1">
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55" t="s">
+        <v>6</v>
+      </c>
+      <c r="B55" s="1">
+        <f>24-B5+B54</f>
+        <v>-179.56229235684759</v>
+      </c>
+      <c r="C55" s="1">
+        <f t="shared" ref="C55:L55" si="26">24-C5+C54</f>
+        <v>-115.72747215112827</v>
+      </c>
+      <c r="D55" s="1">
+        <f t="shared" si="26"/>
+        <v>-115.94562965085018</v>
+      </c>
+      <c r="E55" s="1">
+        <f t="shared" si="26"/>
+        <v>-110.72404306426937</v>
+      </c>
+      <c r="F55" s="1">
+        <f t="shared" si="26"/>
+        <v>-108.28736266030172</v>
+      </c>
+      <c r="G55" s="1">
+        <f t="shared" si="26"/>
+        <v>-107.81742292078317</v>
+      </c>
+      <c r="H55" s="1">
+        <f t="shared" si="26"/>
+        <v>-110.50128475185707</v>
+      </c>
+      <c r="I55" s="1">
+        <f t="shared" si="26"/>
+        <v>-116.54768210573354</v>
+      </c>
+      <c r="J55" s="1">
+        <f t="shared" si="26"/>
+        <v>-120.90170777933531</v>
+      </c>
+      <c r="K55" s="1">
+        <f t="shared" si="26"/>
+        <v>-118.52648425136221</v>
+      </c>
+      <c r="L55" s="1">
+        <f t="shared" si="26"/>
+        <v>-118.40899216527723</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56" t="s">
+        <v>7</v>
+      </c>
+      <c r="B56" s="1">
+        <f>126+B55</f>
+        <v>-53.562292356847593</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56:L56" si="27">126+C55</f>
+        <v>10.272527848871732</v>
+      </c>
+      <c r="D56" s="1">
+        <f t="shared" si="27"/>
+        <v>10.054370349149821</v>
+      </c>
+      <c r="E56" s="1">
+        <f t="shared" si="27"/>
+        <v>15.275956935730633</v>
+      </c>
+      <c r="F56" s="1">
+        <f t="shared" si="27"/>
+        <v>17.712637339698276</v>
+      </c>
+      <c r="G56" s="1">
+        <f t="shared" si="27"/>
+        <v>18.182577079216827</v>
+      </c>
+      <c r="H56" s="1">
+        <f t="shared" si="27"/>
+        <v>15.498715248142929</v>
+      </c>
+      <c r="I56" s="1">
+        <f t="shared" si="27"/>
+        <v>9.4523178942664572</v>
+      </c>
+      <c r="J56" s="1">
+        <f t="shared" si="27"/>
+        <v>5.098292220664689</v>
+      </c>
+      <c r="K56" s="1">
+        <f t="shared" si="27"/>
+        <v>7.4735157486377943</v>
+      </c>
+      <c r="L56" s="1">
+        <f t="shared" si="27"/>
+        <v>7.5910078347227739</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57" t="s">
+        <v>12</v>
+      </c>
+      <c r="B57" s="1" t="str">
+        <f>IF(B56 &gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C57" s="1" t="str">
+        <f t="shared" ref="C57:L57" si="28">IF(C56 &gt;10,"Good","Bad")</f>
+        <v>Good</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Good</v>
+      </c>
+      <c r="E57" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Good</v>
+      </c>
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Good</v>
+      </c>
+      <c r="G57" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Good</v>
+      </c>
+      <c r="H57" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Good</v>
+      </c>
+      <c r="I57" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Bad</v>
+      </c>
+      <c r="J57" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Bad</v>
+      </c>
+      <c r="K57" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Bad</v>
+      </c>
+      <c r="L57" s="1" t="str">
+        <f t="shared" si="28"/>
+        <v>Bad</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" s="1">
+        <f>130+B55</f>
+        <v>-49.562292356847593</v>
+      </c>
+      <c r="C58" s="1">
+        <f t="shared" ref="C58:L58" si="29">130+C55</f>
+        <v>14.272527848871732</v>
+      </c>
+      <c r="D58" s="1">
+        <f t="shared" si="29"/>
+        <v>14.054370349149821</v>
+      </c>
+      <c r="E58" s="1">
+        <f t="shared" si="29"/>
+        <v>19.275956935730633</v>
+      </c>
+      <c r="F58" s="1">
+        <f t="shared" si="29"/>
+        <v>21.712637339698276</v>
+      </c>
+      <c r="G58" s="1">
+        <f t="shared" si="29"/>
+        <v>22.182577079216827</v>
+      </c>
+      <c r="H58" s="1">
+        <f t="shared" si="29"/>
+        <v>19.498715248142929</v>
+      </c>
+      <c r="I58" s="1">
+        <f t="shared" si="29"/>
+        <v>13.452317894266457</v>
+      </c>
+      <c r="J58" s="1">
+        <f t="shared" si="29"/>
+        <v>9.098292220664689</v>
+      </c>
+      <c r="K58" s="1">
+        <f t="shared" si="29"/>
+        <v>11.473515748637794</v>
+      </c>
+      <c r="L58" s="1">
+        <f t="shared" si="29"/>
+        <v>11.591007834722774</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59" t="s">
+        <v>21</v>
+      </c>
+      <c r="B59" s="1" t="str">
+        <f>IF(B58&gt;10,"Good","Bad")</f>
+        <v>Bad</v>
+      </c>
+      <c r="C59" s="1" t="str">
+        <f>IF(C58&gt;10,"Good","Bad")</f>
+        <v>Good</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" ref="D59:L59" si="30">IF(D58&gt;10,"Good","Bad")</f>
+        <v>Good</v>
+      </c>
+      <c r="E59" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>Good</v>
+      </c>
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>Good</v>
+      </c>
+      <c r="G59" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>Good</v>
+      </c>
+      <c r="H59" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>Good</v>
+      </c>
+      <c r="I59" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>Good</v>
+      </c>
+      <c r="J59" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>Bad</v>
+      </c>
+      <c r="K59" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>Good</v>
+      </c>
+      <c r="L59" s="1" t="str">
+        <f t="shared" si="30"/>
+        <v>Good</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>